--- a/attendance_oct_nov_jan_nsu_brac_aiub/BRAC_ATTENDANCE/attendance_brac_jan_2016.xlsx
+++ b/attendance_oct_nov_jan_nsu_brac_aiub/BRAC_ATTENDANCE/attendance_brac_jan_2016.xlsx
@@ -14,7 +14,7 @@
     <sheet name="BRAC" sheetId="9" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">BRAC!$A$9:$N$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">BRAC!$A$9:$O$21</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'fine arts'!$A$9:$Q$44</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1920" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1928" uniqueCount="547">
   <si>
     <t>S No</t>
   </si>
@@ -1660,6 +1660,9 @@
   </si>
   <si>
     <t>fahmida.syn@gmail.com</t>
+  </si>
+  <si>
+    <t>javascript/jq</t>
   </si>
 </sst>
 </file>
@@ -2519,7 +2522,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="224">
+  <cellXfs count="223">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3014,9 +3017,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3551,18 +3551,18 @@
   <sheetData>
     <row r="1" spans="1:26" ht="13.5" thickBot="1"/>
     <row r="2" spans="1:26" ht="13.5" thickBot="1">
-      <c r="B2" s="201" t="s">
+      <c r="B2" s="200" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="202"/>
-      <c r="D2" s="203"/>
+      <c r="C2" s="201"/>
+      <c r="D2" s="202"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:26">
-      <c r="B3" s="204" t="s">
+      <c r="B3" s="203" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="205"/>
+      <c r="C3" s="204"/>
       <c r="D3" s="62">
         <f>SUM(H7:W7)</f>
         <v>48</v>
@@ -3570,10 +3570,10 @@
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:26" ht="13.5" thickBot="1">
-      <c r="B4" s="206" t="s">
+      <c r="B4" s="205" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="207"/>
+      <c r="C4" s="206"/>
       <c r="D4" s="63">
         <f>Z46</f>
         <v>84.571678321678334</v>
@@ -3582,13 +3582,13 @@
     </row>
     <row r="5" spans="1:26" ht="13.5" thickBot="1"/>
     <row r="6" spans="1:26" ht="15">
-      <c r="A6" s="182" t="s">
+      <c r="A6" s="181" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="208"/>
-      <c r="C6" s="208"/>
-      <c r="D6" s="208"/>
-      <c r="E6" s="208"/>
+      <c r="B6" s="207"/>
+      <c r="C6" s="207"/>
+      <c r="D6" s="207"/>
+      <c r="E6" s="207"/>
       <c r="F6" s="78" t="s">
         <v>18</v>
       </c>
@@ -3641,22 +3641,22 @@
       <c r="W6" s="111">
         <v>42322</v>
       </c>
-      <c r="X6" s="176" t="s">
+      <c r="X6" s="175" t="s">
         <v>9</v>
       </c>
-      <c r="Y6" s="194" t="s">
+      <c r="Y6" s="193" t="s">
         <v>10</v>
       </c>
-      <c r="Z6" s="179" t="s">
+      <c r="Z6" s="178" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1">
-      <c r="A7" s="209"/>
-      <c r="B7" s="210"/>
-      <c r="C7" s="210"/>
-      <c r="D7" s="210"/>
-      <c r="E7" s="210"/>
+      <c r="A7" s="208"/>
+      <c r="B7" s="209"/>
+      <c r="C7" s="209"/>
+      <c r="D7" s="209"/>
+      <c r="E7" s="209"/>
       <c r="F7" s="79" t="s">
         <v>16</v>
       </c>
@@ -3711,16 +3711,16 @@
       <c r="W7" s="112">
         <v>3</v>
       </c>
-      <c r="X7" s="177"/>
-      <c r="Y7" s="195"/>
-      <c r="Z7" s="180"/>
+      <c r="X7" s="176"/>
+      <c r="Y7" s="194"/>
+      <c r="Z7" s="179"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="184"/>
-      <c r="B8" s="211"/>
-      <c r="C8" s="211"/>
-      <c r="D8" s="211"/>
-      <c r="E8" s="211"/>
+      <c r="A8" s="183"/>
+      <c r="B8" s="210"/>
+      <c r="C8" s="210"/>
+      <c r="D8" s="210"/>
+      <c r="E8" s="210"/>
       <c r="F8" s="80" t="s">
         <v>19</v>
       </c>
@@ -3775,9 +3775,9 @@
       <c r="W8" s="113" t="s">
         <v>285</v>
       </c>
-      <c r="X8" s="177"/>
-      <c r="Y8" s="195"/>
-      <c r="Z8" s="180"/>
+      <c r="X8" s="176"/>
+      <c r="Y8" s="194"/>
+      <c r="Z8" s="179"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
       <c r="A9" s="35" t="s">
@@ -3849,9 +3849,9 @@
       <c r="W9" s="114" t="s">
         <v>429</v>
       </c>
-      <c r="X9" s="178"/>
-      <c r="Y9" s="196"/>
-      <c r="Z9" s="181"/>
+      <c r="X9" s="177"/>
+      <c r="Y9" s="195"/>
+      <c r="Z9" s="180"/>
     </row>
     <row r="10" spans="1:26" ht="15">
       <c r="A10" s="41">
@@ -6524,15 +6524,15 @@
       </c>
     </row>
     <row r="46" spans="1:26" ht="15" customHeight="1">
-      <c r="A46" s="197"/>
-      <c r="B46" s="198"/>
-      <c r="C46" s="188" t="s">
+      <c r="A46" s="196"/>
+      <c r="B46" s="197"/>
+      <c r="C46" s="187" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="189"/>
-      <c r="E46" s="189"/>
-      <c r="F46" s="189"/>
-      <c r="G46" s="190"/>
+      <c r="D46" s="188"/>
+      <c r="E46" s="188"/>
+      <c r="F46" s="188"/>
+      <c r="G46" s="189"/>
       <c r="H46" s="27">
         <f t="shared" ref="H46:T46" si="3">COUNTIF(H10:H45,"P")</f>
         <v>23</v>
@@ -6597,25 +6597,25 @@
         <f>COUNTIF(W10:W45,"p")</f>
         <v>30</v>
       </c>
-      <c r="X46" s="182" t="s">
+      <c r="X46" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="Y46" s="183"/>
-      <c r="Z46" s="186">
+      <c r="Y46" s="182"/>
+      <c r="Z46" s="185">
         <f>AVERAGE(Z10:Z45)</f>
         <v>84.571678321678334</v>
       </c>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A47" s="199"/>
-      <c r="B47" s="200"/>
-      <c r="C47" s="191" t="s">
+      <c r="A47" s="198"/>
+      <c r="B47" s="199"/>
+      <c r="C47" s="190" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="192"/>
-      <c r="E47" s="192"/>
-      <c r="F47" s="192"/>
-      <c r="G47" s="193"/>
+      <c r="D47" s="191"/>
+      <c r="E47" s="191"/>
+      <c r="F47" s="191"/>
+      <c r="G47" s="192"/>
       <c r="H47" s="31">
         <f t="shared" ref="H47:W47" si="4">COUNTBLANK(H10:H45)</f>
         <v>13</v>
@@ -6680,9 +6680,9 @@
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="X47" s="184"/>
-      <c r="Y47" s="185"/>
-      <c r="Z47" s="187"/>
+      <c r="X47" s="183"/>
+      <c r="Y47" s="184"/>
+      <c r="Z47" s="186"/>
     </row>
     <row r="48" spans="1:26" s="99" customFormat="1" ht="15">
       <c r="A48" s="101">
@@ -6984,18 +6984,18 @@
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B2" s="201" t="s">
+      <c r="B2" s="200" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="202"/>
-      <c r="D2" s="203"/>
+      <c r="C2" s="201"/>
+      <c r="D2" s="202"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B3" s="204" t="s">
+      <c r="B3" s="203" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="205"/>
+      <c r="C3" s="204"/>
       <c r="D3" s="62">
         <f>SUM(H7:Q7)</f>
         <v>45</v>
@@ -7003,10 +7003,10 @@
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B4" s="206" t="s">
+      <c r="B4" s="205" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="207"/>
+      <c r="C4" s="206"/>
       <c r="D4" s="63">
         <f>T59</f>
         <v>84.476838354389372</v>
@@ -7015,13 +7015,13 @@
     </row>
     <row r="5" spans="1:20" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="6" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A6" s="182" t="s">
+      <c r="A6" s="181" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="208"/>
-      <c r="C6" s="208"/>
-      <c r="D6" s="208"/>
-      <c r="E6" s="208"/>
+      <c r="B6" s="207"/>
+      <c r="C6" s="207"/>
+      <c r="D6" s="207"/>
+      <c r="E6" s="207"/>
       <c r="F6" s="49" t="s">
         <v>18</v>
       </c>
@@ -7056,22 +7056,22 @@
       <c r="Q6" s="51">
         <v>42326</v>
       </c>
-      <c r="R6" s="176" t="s">
+      <c r="R6" s="175" t="s">
         <v>9</v>
       </c>
-      <c r="S6" s="194" t="s">
+      <c r="S6" s="193" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="179" t="s">
+      <c r="T6" s="178" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A7" s="209"/>
-      <c r="B7" s="210"/>
-      <c r="C7" s="210"/>
-      <c r="D7" s="210"/>
-      <c r="E7" s="210"/>
+      <c r="A7" s="208"/>
+      <c r="B7" s="209"/>
+      <c r="C7" s="209"/>
+      <c r="D7" s="209"/>
+      <c r="E7" s="209"/>
       <c r="F7" s="22" t="s">
         <v>16</v>
       </c>
@@ -7108,16 +7108,16 @@
       <c r="Q7" s="6">
         <v>3</v>
       </c>
-      <c r="R7" s="177"/>
-      <c r="S7" s="195"/>
-      <c r="T7" s="180"/>
+      <c r="R7" s="176"/>
+      <c r="S7" s="194"/>
+      <c r="T7" s="179"/>
     </row>
     <row r="8" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="184"/>
-      <c r="B8" s="211"/>
-      <c r="C8" s="211"/>
-      <c r="D8" s="211"/>
-      <c r="E8" s="211"/>
+      <c r="A8" s="183"/>
+      <c r="B8" s="210"/>
+      <c r="C8" s="210"/>
+      <c r="D8" s="210"/>
+      <c r="E8" s="210"/>
       <c r="F8" s="55" t="s">
         <v>19</v>
       </c>
@@ -7154,9 +7154,9 @@
       <c r="Q8" s="58" t="s">
         <v>285</v>
       </c>
-      <c r="R8" s="177"/>
-      <c r="S8" s="195"/>
-      <c r="T8" s="180"/>
+      <c r="R8" s="176"/>
+      <c r="S8" s="194"/>
+      <c r="T8" s="179"/>
     </row>
     <row r="9" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
       <c r="A9" s="120" t="s">
@@ -7210,9 +7210,9 @@
       <c r="Q9" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="R9" s="178"/>
-      <c r="S9" s="196"/>
-      <c r="T9" s="181"/>
+      <c r="R9" s="177"/>
+      <c r="S9" s="195"/>
+      <c r="T9" s="180"/>
     </row>
     <row r="10" spans="1:20" ht="15.75" customHeight="1">
       <c r="A10" s="12">
@@ -10108,15 +10108,15 @@
       </c>
     </row>
     <row r="59" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A59" s="212"/>
-      <c r="B59" s="213"/>
-      <c r="C59" s="188" t="s">
+      <c r="A59" s="211"/>
+      <c r="B59" s="212"/>
+      <c r="C59" s="187" t="s">
         <v>7</v>
       </c>
-      <c r="D59" s="189"/>
-      <c r="E59" s="189"/>
-      <c r="F59" s="189"/>
-      <c r="G59" s="190"/>
+      <c r="D59" s="188"/>
+      <c r="E59" s="188"/>
+      <c r="F59" s="188"/>
+      <c r="G59" s="189"/>
       <c r="H59" s="27">
         <f t="shared" ref="H59:Q59" si="4">COUNTIF(H10:H58,"P")</f>
         <v>38</v>
@@ -10157,25 +10157,25 @@
         <f t="shared" si="4"/>
         <v>46</v>
       </c>
-      <c r="R59" s="182" t="s">
+      <c r="R59" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="S59" s="183"/>
-      <c r="T59" s="186">
+      <c r="S59" s="182"/>
+      <c r="T59" s="185">
         <f>AVERAGE(T10:T58)</f>
         <v>84.476838354389372</v>
       </c>
     </row>
     <row r="60" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A60" s="199"/>
-      <c r="B60" s="200"/>
-      <c r="C60" s="191" t="s">
+      <c r="A60" s="198"/>
+      <c r="B60" s="199"/>
+      <c r="C60" s="190" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="192"/>
-      <c r="E60" s="192"/>
-      <c r="F60" s="192"/>
-      <c r="G60" s="193"/>
+      <c r="D60" s="191"/>
+      <c r="E60" s="191"/>
+      <c r="F60" s="191"/>
+      <c r="G60" s="192"/>
       <c r="H60" s="31">
         <f>COUNTBLANK(H10:H58)</f>
         <v>11</v>
@@ -10216,9 +10216,9 @@
         <f>COUNTIF(Q11:Q58,#REF!)</f>
         <v>0</v>
       </c>
-      <c r="R60" s="184"/>
-      <c r="S60" s="185"/>
-      <c r="T60" s="187"/>
+      <c r="R60" s="183"/>
+      <c r="S60" s="184"/>
+      <c r="T60" s="186"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -10343,18 +10343,18 @@
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" thickBot="1"/>
     <row r="2" spans="1:25" ht="13.5" thickBot="1">
-      <c r="B2" s="201" t="s">
+      <c r="B2" s="200" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="202"/>
-      <c r="D2" s="203"/>
+      <c r="C2" s="201"/>
+      <c r="D2" s="202"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:25">
-      <c r="B3" s="204" t="s">
+      <c r="B3" s="203" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="205"/>
+      <c r="C3" s="204"/>
       <c r="D3" s="62">
         <f>SUM(H7:T7)</f>
         <v>18</v>
@@ -10362,10 +10362,10 @@
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:25" ht="13.5" thickBot="1">
-      <c r="B4" s="206" t="s">
+      <c r="B4" s="205" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="207"/>
+      <c r="C4" s="206"/>
       <c r="D4" s="63">
         <f>Y55</f>
         <v>69.298245614035082</v>
@@ -10374,13 +10374,13 @@
     </row>
     <row r="5" spans="1:25" ht="13.5" thickBot="1"/>
     <row r="6" spans="1:25" ht="15">
-      <c r="A6" s="182" t="s">
+      <c r="A6" s="181" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="208"/>
-      <c r="C6" s="208"/>
-      <c r="D6" s="208"/>
-      <c r="E6" s="208"/>
+      <c r="B6" s="207"/>
+      <c r="C6" s="207"/>
+      <c r="D6" s="207"/>
+      <c r="E6" s="207"/>
       <c r="F6" s="49" t="s">
         <v>18</v>
       </c>
@@ -10412,22 +10412,22 @@
       <c r="T6" s="51"/>
       <c r="U6" s="52"/>
       <c r="V6" s="53"/>
-      <c r="W6" s="176" t="s">
+      <c r="W6" s="175" t="s">
         <v>9</v>
       </c>
-      <c r="X6" s="194" t="s">
+      <c r="X6" s="193" t="s">
         <v>10</v>
       </c>
-      <c r="Y6" s="179" t="s">
+      <c r="Y6" s="178" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" s="209"/>
-      <c r="B7" s="210"/>
-      <c r="C7" s="210"/>
-      <c r="D7" s="210"/>
-      <c r="E7" s="210"/>
+      <c r="A7" s="208"/>
+      <c r="B7" s="209"/>
+      <c r="C7" s="209"/>
+      <c r="D7" s="209"/>
+      <c r="E7" s="209"/>
       <c r="F7" s="22" t="s">
         <v>16</v>
       </c>
@@ -10461,16 +10461,16 @@
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
       <c r="V7" s="54"/>
-      <c r="W7" s="177"/>
-      <c r="X7" s="195"/>
-      <c r="Y7" s="180"/>
+      <c r="W7" s="176"/>
+      <c r="X7" s="194"/>
+      <c r="Y7" s="179"/>
     </row>
     <row r="8" spans="1:25" ht="13.5" thickBot="1">
-      <c r="A8" s="184"/>
-      <c r="B8" s="211"/>
-      <c r="C8" s="211"/>
-      <c r="D8" s="211"/>
-      <c r="E8" s="211"/>
+      <c r="A8" s="183"/>
+      <c r="B8" s="210"/>
+      <c r="C8" s="210"/>
+      <c r="D8" s="210"/>
+      <c r="E8" s="210"/>
       <c r="F8" s="55" t="s">
         <v>19</v>
       </c>
@@ -10504,9 +10504,9 @@
       <c r="T8" s="58"/>
       <c r="U8" s="58"/>
       <c r="V8" s="59"/>
-      <c r="W8" s="177"/>
-      <c r="X8" s="195"/>
-      <c r="Y8" s="180"/>
+      <c r="W8" s="176"/>
+      <c r="X8" s="194"/>
+      <c r="Y8" s="179"/>
     </row>
     <row r="9" spans="1:25" ht="13.5" thickBot="1">
       <c r="A9" s="35" t="s">
@@ -10575,9 +10575,9 @@
       <c r="V9" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="W9" s="178"/>
-      <c r="X9" s="196"/>
-      <c r="Y9" s="181"/>
+      <c r="W9" s="177"/>
+      <c r="X9" s="195"/>
+      <c r="Y9" s="180"/>
     </row>
     <row r="10" spans="1:25" ht="15">
       <c r="A10" s="71">
@@ -12997,15 +12997,15 @@
       </c>
     </row>
     <row r="55" spans="1:25">
-      <c r="A55" s="197"/>
-      <c r="B55" s="198"/>
-      <c r="C55" s="188" t="s">
+      <c r="A55" s="196"/>
+      <c r="B55" s="197"/>
+      <c r="C55" s="187" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="189"/>
-      <c r="E55" s="189"/>
-      <c r="F55" s="189"/>
-      <c r="G55" s="189"/>
+      <c r="D55" s="188"/>
+      <c r="E55" s="188"/>
+      <c r="F55" s="188"/>
+      <c r="G55" s="188"/>
       <c r="H55" s="74">
         <f t="shared" ref="H55:T55" si="3">COUNTIF(H10:H54,"P")</f>
         <v>22</v>
@@ -13066,25 +13066,25 @@
         <f>COUNTIF(V10:V54,#REF!)</f>
         <v>0</v>
       </c>
-      <c r="W55" s="182" t="s">
+      <c r="W55" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="X55" s="183"/>
-      <c r="Y55" s="186">
+      <c r="X55" s="182"/>
+      <c r="Y55" s="185">
         <f>AVERAGE(Y10:Y54)</f>
         <v>69.298245614035082</v>
       </c>
     </row>
     <row r="56" spans="1:25" ht="13.5" thickBot="1">
-      <c r="A56" s="199"/>
-      <c r="B56" s="200"/>
-      <c r="C56" s="191" t="s">
+      <c r="A56" s="198"/>
+      <c r="B56" s="199"/>
+      <c r="C56" s="190" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="192"/>
-      <c r="E56" s="192"/>
-      <c r="F56" s="192"/>
-      <c r="G56" s="192"/>
+      <c r="D56" s="191"/>
+      <c r="E56" s="191"/>
+      <c r="F56" s="191"/>
+      <c r="G56" s="191"/>
       <c r="H56" s="75">
         <f>COUNTBLANK(H10:H54)</f>
         <v>23</v>
@@ -13145,9 +13145,9 @@
         <f>COUNTIF(V11:V54,#REF!)</f>
         <v>0</v>
       </c>
-      <c r="W56" s="184"/>
-      <c r="X56" s="185"/>
-      <c r="Y56" s="187"/>
+      <c r="W56" s="183"/>
+      <c r="X56" s="184"/>
+      <c r="Y56" s="186"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -13252,18 +13252,18 @@
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" thickBot="1"/>
     <row r="2" spans="1:25" ht="13.5" thickBot="1">
-      <c r="B2" s="201" t="s">
+      <c r="B2" s="200" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="202"/>
-      <c r="D2" s="203"/>
+      <c r="C2" s="201"/>
+      <c r="D2" s="202"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:25">
-      <c r="B3" s="204" t="s">
+      <c r="B3" s="203" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="205"/>
+      <c r="C3" s="204"/>
       <c r="D3" s="62">
         <f>SUM(H7:T7)</f>
         <v>6</v>
@@ -13271,10 +13271,10 @@
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:25" ht="13.5" thickBot="1">
-      <c r="B4" s="206" t="s">
+      <c r="B4" s="205" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="207"/>
+      <c r="C4" s="206"/>
       <c r="D4" s="63" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -13283,13 +13283,13 @@
     </row>
     <row r="5" spans="1:25" ht="13.5" thickBot="1"/>
     <row r="6" spans="1:25" ht="15">
-      <c r="A6" s="182" t="s">
+      <c r="A6" s="181" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="208"/>
-      <c r="C6" s="208"/>
-      <c r="D6" s="208"/>
-      <c r="E6" s="208"/>
+      <c r="B6" s="207"/>
+      <c r="C6" s="207"/>
+      <c r="D6" s="207"/>
+      <c r="E6" s="207"/>
       <c r="F6" s="49" t="s">
         <v>18</v>
       </c>
@@ -13313,22 +13313,22 @@
       <c r="T6" s="51"/>
       <c r="U6" s="52"/>
       <c r="V6" s="53"/>
-      <c r="W6" s="176" t="s">
+      <c r="W6" s="175" t="s">
         <v>9</v>
       </c>
-      <c r="X6" s="194" t="s">
+      <c r="X6" s="193" t="s">
         <v>10</v>
       </c>
-      <c r="Y6" s="179" t="s">
+      <c r="Y6" s="178" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" s="209"/>
-      <c r="B7" s="210"/>
-      <c r="C7" s="210"/>
-      <c r="D7" s="210"/>
-      <c r="E7" s="210"/>
+      <c r="A7" s="208"/>
+      <c r="B7" s="209"/>
+      <c r="C7" s="209"/>
+      <c r="D7" s="209"/>
+      <c r="E7" s="209"/>
       <c r="F7" s="22" t="s">
         <v>16</v>
       </c>
@@ -13354,16 +13354,16 @@
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
       <c r="V7" s="54"/>
-      <c r="W7" s="177"/>
-      <c r="X7" s="195"/>
-      <c r="Y7" s="180"/>
+      <c r="W7" s="176"/>
+      <c r="X7" s="194"/>
+      <c r="Y7" s="179"/>
     </row>
     <row r="8" spans="1:25" ht="13.5" thickBot="1">
-      <c r="A8" s="184"/>
-      <c r="B8" s="211"/>
-      <c r="C8" s="211"/>
-      <c r="D8" s="211"/>
-      <c r="E8" s="211"/>
+      <c r="A8" s="183"/>
+      <c r="B8" s="210"/>
+      <c r="C8" s="210"/>
+      <c r="D8" s="210"/>
+      <c r="E8" s="210"/>
       <c r="F8" s="55" t="s">
         <v>19</v>
       </c>
@@ -13389,9 +13389,9 @@
       <c r="T8" s="58"/>
       <c r="U8" s="58"/>
       <c r="V8" s="59"/>
-      <c r="W8" s="177"/>
-      <c r="X8" s="195"/>
-      <c r="Y8" s="180"/>
+      <c r="W8" s="176"/>
+      <c r="X8" s="194"/>
+      <c r="Y8" s="179"/>
     </row>
     <row r="9" spans="1:25" ht="13.5" thickBot="1">
       <c r="A9" s="35" t="s">
@@ -13460,9 +13460,9 @@
       <c r="V9" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="W9" s="178"/>
-      <c r="X9" s="196"/>
-      <c r="Y9" s="181"/>
+      <c r="W9" s="177"/>
+      <c r="X9" s="195"/>
+      <c r="Y9" s="180"/>
     </row>
     <row r="10" spans="1:25" ht="15">
       <c r="A10" s="128">
@@ -15352,12 +15352,12 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="topRight" activeCell="K27" sqref="K27"/>
+      <selection pane="topRight" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -15370,52 +15370,52 @@
     <col min="6" max="6" width="20" style="77" customWidth="1"/>
     <col min="7" max="7" width="34.28515625" style="77" customWidth="1"/>
     <col min="8" max="8" width="59.140625" style="77" customWidth="1"/>
-    <col min="9" max="11" width="15.140625" style="77" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="77" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="77" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" style="133" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="77"/>
+    <col min="9" max="12" width="15.140625" style="77" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" style="77" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="77" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" style="133" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="77"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="13.5" thickBot="1"/>
-    <row r="2" spans="1:14" ht="13.5" thickBot="1">
-      <c r="B2" s="215" t="s">
+    <row r="1" spans="1:15" ht="13.5" thickBot="1"/>
+    <row r="2" spans="1:15" ht="13.5" thickBot="1">
+      <c r="B2" s="214" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="216"/>
-      <c r="D2" s="217"/>
+      <c r="C2" s="215"/>
+      <c r="D2" s="216"/>
       <c r="E2" s="134"/>
     </row>
-    <row r="3" spans="1:14">
-      <c r="B3" s="218" t="s">
+    <row r="3" spans="1:15">
+      <c r="B3" s="217" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="219"/>
+      <c r="C3" s="218"/>
       <c r="D3" s="135">
-        <f>SUM(K8:K8)</f>
-        <v>3</v>
+        <f>SUM(I8:L8)</f>
+        <v>12</v>
       </c>
       <c r="E3" s="136"/>
     </row>
-    <row r="4" spans="1:14" ht="13.5" thickBot="1">
-      <c r="B4" s="220" t="s">
+    <row r="4" spans="1:15" ht="13.5" thickBot="1">
+      <c r="B4" s="219" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="221"/>
+      <c r="C4" s="220"/>
       <c r="D4" s="137">
-        <f>N21</f>
-        <v>36.363636363636367</v>
+        <f>O21</f>
+        <v>63.636363636363633</v>
       </c>
       <c r="E4" s="138"/>
     </row>
-    <row r="6" spans="1:14" ht="15">
-      <c r="A6" s="222" t="s">
+    <row r="6" spans="1:15" ht="15">
+      <c r="A6" s="221" t="s">
         <v>520</v>
       </c>
-      <c r="B6" s="222"/>
-      <c r="C6" s="222"/>
-      <c r="D6" s="222"/>
-      <c r="E6" s="222"/>
+      <c r="B6" s="221"/>
+      <c r="C6" s="221"/>
+      <c r="D6" s="221"/>
+      <c r="E6" s="221"/>
       <c r="F6" s="150" t="s">
         <v>18</v>
       </c>
@@ -15430,22 +15430,25 @@
       <c r="K6" s="139">
         <v>42406</v>
       </c>
-      <c r="L6" s="223" t="s">
+      <c r="L6" s="139">
+        <v>42418</v>
+      </c>
+      <c r="M6" s="222" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="223" t="s">
+      <c r="N6" s="222" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="214" t="s">
+      <c r="O6" s="213" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="222"/>
-      <c r="B7" s="222"/>
-      <c r="C7" s="222"/>
-      <c r="D7" s="222"/>
-      <c r="E7" s="222"/>
+    <row r="7" spans="1:15">
+      <c r="A7" s="221"/>
+      <c r="B7" s="221"/>
+      <c r="C7" s="221"/>
+      <c r="D7" s="221"/>
+      <c r="E7" s="221"/>
       <c r="F7" s="140" t="s">
         <v>16</v>
       </c>
@@ -15462,16 +15465,19 @@
       <c r="K7" s="142" t="s">
         <v>522</v>
       </c>
-      <c r="L7" s="223"/>
-      <c r="M7" s="223"/>
-      <c r="N7" s="214"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="222"/>
-      <c r="B8" s="222"/>
-      <c r="C8" s="222"/>
-      <c r="D8" s="222"/>
-      <c r="E8" s="222"/>
+      <c r="L7" s="142" t="s">
+        <v>546</v>
+      </c>
+      <c r="M7" s="222"/>
+      <c r="N7" s="222"/>
+      <c r="O7" s="213"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="221"/>
+      <c r="B8" s="221"/>
+      <c r="C8" s="221"/>
+      <c r="D8" s="221"/>
+      <c r="E8" s="221"/>
       <c r="F8" s="152" t="s">
         <v>19</v>
       </c>
@@ -15488,11 +15494,14 @@
       <c r="K8" s="157">
         <v>3</v>
       </c>
-      <c r="L8" s="223"/>
-      <c r="M8" s="223"/>
-      <c r="N8" s="214"/>
-    </row>
-    <row r="9" spans="1:14" ht="13.5" thickBot="1">
+      <c r="L8" s="157">
+        <v>3</v>
+      </c>
+      <c r="M8" s="222"/>
+      <c r="N8" s="222"/>
+      <c r="O8" s="213"/>
+    </row>
+    <row r="9" spans="1:15" ht="13.5" thickBot="1">
       <c r="A9" s="141" t="s">
         <v>0</v>
       </c>
@@ -15526,16 +15535,19 @@
       <c r="K9" s="141" t="s">
         <v>519</v>
       </c>
-      <c r="L9" s="223"/>
-      <c r="M9" s="223"/>
-      <c r="N9" s="214"/>
-    </row>
-    <row r="10" spans="1:14" ht="15.75" thickBot="1">
+      <c r="L9" s="141" t="s">
+        <v>519</v>
+      </c>
+      <c r="M9" s="222"/>
+      <c r="N9" s="222"/>
+      <c r="O9" s="213"/>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" thickBot="1">
       <c r="A10" s="144">
         <v>1</v>
       </c>
       <c r="B10" s="158"/>
-      <c r="C10" s="174" t="s">
+      <c r="C10" s="173" t="s">
         <v>523</v>
       </c>
       <c r="D10" s="160"/>
@@ -15545,10 +15557,10 @@
       <c r="F10">
         <v>1670321449</v>
       </c>
-      <c r="G10" s="172" t="s">
+      <c r="G10" s="171" t="s">
         <v>534</v>
       </c>
-      <c r="H10" s="170"/>
+      <c r="H10" s="169"/>
       <c r="I10" s="143" t="s">
         <v>104</v>
       </c>
@@ -15558,25 +15570,28 @@
       <c r="K10" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="L10" s="143">
-        <f t="shared" ref="L10:L21" si="0">COUNTIF(K10:K10,"P")</f>
-        <v>1</v>
-      </c>
-      <c r="M10" s="146">
-        <f t="shared" ref="M10:M21" si="1">COUNTBLANK(K10:K10)</f>
+      <c r="L10" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="M10" s="143">
+        <f>COUNTIF(I10:L10,"P")</f>
+        <v>4</v>
+      </c>
+      <c r="N10" s="146">
+        <f>COUNTBLANK(I10:L10)</f>
         <v>0</v>
       </c>
-      <c r="N10" s="155">
-        <f>L10*100/SUM(L10:M10)</f>
+      <c r="O10" s="155">
+        <f>M10*100/SUM(M10:N10)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1">
+    <row r="11" spans="1:15" ht="15.75" thickBot="1">
       <c r="A11" s="144">
         <v>2</v>
       </c>
       <c r="B11" s="158"/>
-      <c r="C11" s="174" t="s">
+      <c r="C11" s="173" t="s">
         <v>524</v>
       </c>
       <c r="D11" s="160"/>
@@ -15586,10 +15601,10 @@
       <c r="F11">
         <v>1764483731</v>
       </c>
-      <c r="G11" s="172" t="s">
+      <c r="G11" s="171" t="s">
         <v>535</v>
       </c>
-      <c r="H11" s="170"/>
+      <c r="H11" s="169"/>
       <c r="I11" s="143" t="s">
         <v>104</v>
       </c>
@@ -15599,25 +15614,28 @@
       <c r="K11" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="L11" s="143">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M11" s="146">
-        <f t="shared" si="1"/>
+      <c r="L11" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="M11" s="143">
+        <f t="shared" ref="M11:M20" si="0">COUNTIF(I11:L11,"P")</f>
+        <v>4</v>
+      </c>
+      <c r="N11" s="146">
+        <f t="shared" ref="N11:N20" si="1">COUNTBLANK(I11:L11)</f>
         <v>0</v>
       </c>
-      <c r="N11" s="155">
-        <f>L11*100/SUM(L11:M11)</f>
+      <c r="O11" s="155">
+        <f>M11*100/SUM(M11:N11)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15.75" thickBot="1">
+    <row r="12" spans="1:15" ht="15.75" thickBot="1">
       <c r="A12" s="144">
         <v>3</v>
       </c>
       <c r="B12" s="158"/>
-      <c r="C12" s="174" t="s">
+      <c r="C12" s="173" t="s">
         <v>525</v>
       </c>
       <c r="D12" s="160"/>
@@ -15625,32 +15643,33 @@
         <v>521</v>
       </c>
       <c r="F12"/>
-      <c r="G12" s="172" t="s">
+      <c r="G12" s="171" t="s">
         <v>536</v>
       </c>
-      <c r="H12" s="169"/>
+      <c r="H12" s="168"/>
       <c r="I12" s="143"/>
       <c r="J12" s="143"/>
       <c r="K12" s="143"/>
-      <c r="L12" s="143">
+      <c r="L12" s="143"/>
+      <c r="M12" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M12" s="146">
+      <c r="N12" s="146">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N12" s="155">
-        <f t="shared" ref="N12:N20" si="2">L12*100/SUM(L12:M12)</f>
+        <v>4</v>
+      </c>
+      <c r="O12" s="155">
+        <f t="shared" ref="O12:O20" si="2">M12*100/SUM(M12:N12)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15.75" thickBot="1">
+    <row r="13" spans="1:15" ht="15.75" thickBot="1">
       <c r="A13" s="144">
         <v>4</v>
       </c>
       <c r="B13" s="158"/>
-      <c r="C13" s="174" t="s">
+      <c r="C13" s="173" t="s">
         <v>526</v>
       </c>
       <c r="D13" s="160"/>
@@ -15660,10 +15679,10 @@
       <c r="F13">
         <v>1685695033</v>
       </c>
-      <c r="G13" s="172" t="s">
+      <c r="G13" s="171" t="s">
         <v>537</v>
       </c>
-      <c r="H13" s="170"/>
+      <c r="H13" s="169"/>
       <c r="I13" s="143" t="s">
         <v>104</v>
       </c>
@@ -15671,25 +15690,28 @@
         <v>104</v>
       </c>
       <c r="K13" s="143"/>
-      <c r="L13" s="143">
+      <c r="L13" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="M13" s="143">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M13" s="146">
+        <v>3</v>
+      </c>
+      <c r="N13" s="146">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N13" s="155">
+      <c r="O13" s="155">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="15.75" thickBot="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" thickBot="1">
       <c r="A14" s="144">
         <v>5</v>
       </c>
       <c r="B14" s="158"/>
-      <c r="C14" s="174" t="s">
+      <c r="C14" s="173" t="s">
         <v>527</v>
       </c>
       <c r="D14" s="160"/>
@@ -15699,10 +15721,10 @@
       <c r="F14">
         <v>1534343419</v>
       </c>
-      <c r="G14" s="172" t="s">
+      <c r="G14" s="171" t="s">
         <v>538</v>
       </c>
-      <c r="H14" s="169"/>
+      <c r="H14" s="168"/>
       <c r="I14" s="143" t="s">
         <v>104</v>
       </c>
@@ -15710,25 +15732,26 @@
         <v>104</v>
       </c>
       <c r="K14" s="143"/>
-      <c r="L14" s="143">
+      <c r="L14" s="143"/>
+      <c r="M14" s="143">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="146">
+        <v>2</v>
+      </c>
+      <c r="N14" s="146">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N14" s="155">
+        <v>2</v>
+      </c>
+      <c r="O14" s="155">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" thickBot="1">
       <c r="A15" s="144">
         <v>6</v>
       </c>
       <c r="B15" s="158"/>
-      <c r="C15" s="174" t="s">
+      <c r="C15" s="173" t="s">
         <v>528</v>
       </c>
       <c r="D15" s="160"/>
@@ -15738,10 +15761,10 @@
       <c r="F15">
         <v>1763244012</v>
       </c>
-      <c r="G15" s="172" t="s">
+      <c r="G15" s="171" t="s">
         <v>539</v>
       </c>
-      <c r="H15" s="169"/>
+      <c r="H15" s="168"/>
       <c r="I15" s="143" t="s">
         <v>104</v>
       </c>
@@ -15751,25 +15774,28 @@
       <c r="K15" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="L15" s="143">
+      <c r="L15" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="M15" s="143">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M15" s="146">
+        <v>4</v>
+      </c>
+      <c r="N15" s="146">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N15" s="155">
+      <c r="O15" s="155">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="168" customFormat="1" ht="15.75" thickBot="1">
+    <row r="16" spans="1:15" s="167" customFormat="1" ht="15.75" thickBot="1">
       <c r="A16" s="162">
         <v>7</v>
       </c>
       <c r="B16" s="163"/>
-      <c r="C16" s="174" t="s">
+      <c r="C16" s="173" t="s">
         <v>529</v>
       </c>
       <c r="D16" s="164"/>
@@ -15779,34 +15805,37 @@
       <c r="F16">
         <v>1918924424</v>
       </c>
-      <c r="G16" s="172" t="s">
+      <c r="G16" s="171" t="s">
         <v>540</v>
       </c>
-      <c r="H16" s="170"/>
+      <c r="H16" s="169"/>
       <c r="I16" s="165"/>
       <c r="J16" s="165"/>
       <c r="K16" s="165" t="s">
         <v>104</v>
       </c>
-      <c r="L16" s="143">
+      <c r="L16" s="165" t="s">
+        <v>104</v>
+      </c>
+      <c r="M16" s="143">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M16" s="166">
+        <v>2</v>
+      </c>
+      <c r="N16" s="146">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N16" s="167">
+        <v>2</v>
+      </c>
+      <c r="O16" s="166">
         <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="15.75" thickBot="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="15.75" thickBot="1">
       <c r="A17" s="144">
         <v>8</v>
       </c>
       <c r="B17" s="158"/>
-      <c r="C17" s="174" t="s">
+      <c r="C17" s="173" t="s">
         <v>530</v>
       </c>
       <c r="D17" s="160"/>
@@ -15816,10 +15845,10 @@
       <c r="F17">
         <v>1937075396</v>
       </c>
-      <c r="G17" s="172" t="s">
+      <c r="G17" s="171" t="s">
         <v>541</v>
       </c>
-      <c r="H17" s="170"/>
+      <c r="H17" s="169"/>
       <c r="I17" s="143" t="s">
         <v>104</v>
       </c>
@@ -15827,25 +15856,26 @@
         <v>104</v>
       </c>
       <c r="K17" s="143"/>
-      <c r="L17" s="143">
+      <c r="L17" s="143"/>
+      <c r="M17" s="143">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M17" s="146">
+        <v>2</v>
+      </c>
+      <c r="N17" s="146">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N17" s="155">
+        <v>2</v>
+      </c>
+      <c r="O17" s="155">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="15.75" thickBot="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15.75" thickBot="1">
       <c r="A18" s="144">
         <v>9</v>
       </c>
       <c r="B18" s="159"/>
-      <c r="C18" s="175" t="s">
+      <c r="C18" s="174" t="s">
         <v>531</v>
       </c>
       <c r="D18" s="160"/>
@@ -15855,10 +15885,10 @@
       <c r="F18" s="161">
         <v>1674767135</v>
       </c>
-      <c r="G18" s="173" t="s">
+      <c r="G18" s="172" t="s">
         <v>542</v>
       </c>
-      <c r="H18" s="170"/>
+      <c r="H18" s="169"/>
       <c r="I18" s="143" t="s">
         <v>104</v>
       </c>
@@ -15866,25 +15896,26 @@
         <v>104</v>
       </c>
       <c r="K18" s="143"/>
-      <c r="L18" s="143">
+      <c r="L18" s="143"/>
+      <c r="M18" s="143">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M18" s="146">
+        <v>2</v>
+      </c>
+      <c r="N18" s="146">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N18" s="155">
+        <v>2</v>
+      </c>
+      <c r="O18" s="155">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="15.75" thickBot="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="15.75" thickBot="1">
       <c r="A19" s="144">
         <v>10</v>
       </c>
       <c r="B19" s="158"/>
-      <c r="C19" s="175" t="s">
+      <c r="C19" s="174" t="s">
         <v>532</v>
       </c>
       <c r="D19" s="160"/>
@@ -15894,10 +15925,10 @@
       <c r="F19" s="161" t="s">
         <v>533</v>
       </c>
-      <c r="G19" s="173" t="s">
+      <c r="G19" s="172" t="s">
         <v>543</v>
       </c>
-      <c r="H19" s="171"/>
+      <c r="H19" s="170"/>
       <c r="I19" s="143" t="s">
         <v>104</v>
       </c>
@@ -15905,20 +15936,21 @@
         <v>104</v>
       </c>
       <c r="K19" s="143"/>
-      <c r="L19" s="143">
-        <f t="shared" ref="L19" si="3">COUNTIF(K19:K19,"P")</f>
-        <v>0</v>
-      </c>
-      <c r="M19" s="146">
-        <f t="shared" ref="M19" si="4">COUNTBLANK(K19:K19)</f>
-        <v>1</v>
-      </c>
-      <c r="N19" s="155">
-        <f t="shared" ref="N19" si="5">L19*100/SUM(L19:M19)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="15.75" thickBot="1">
+      <c r="L19" s="143"/>
+      <c r="M19" s="143">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N19" s="146">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="O19" s="155">
+        <f t="shared" ref="O19" si="3">M19*100/SUM(M19:N19)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="15.75" thickBot="1">
       <c r="A20" s="144">
         <v>10</v>
       </c>
@@ -15936,7 +15968,7 @@
       <c r="G20" s="20" t="s">
         <v>545</v>
       </c>
-      <c r="H20" s="171"/>
+      <c r="H20" s="170"/>
       <c r="I20" s="143" t="s">
         <v>104</v>
       </c>
@@ -15944,20 +15976,23 @@
         <v>104</v>
       </c>
       <c r="K20" s="143"/>
-      <c r="L20" s="143">
+      <c r="L20" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="M20" s="143">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M20" s="146">
+        <v>3</v>
+      </c>
+      <c r="N20" s="146">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N20" s="155">
+      <c r="O20" s="155">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15">
       <c r="A21" s="144">
         <v>38</v>
       </c>
@@ -15981,28 +16016,32 @@
         <v>4</v>
       </c>
       <c r="L21" s="148">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M21" s="149">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N21" s="156">
-        <f>AVERAGE(N10:N20)</f>
-        <v>36.363636363636367</v>
+        <f>COUNTIF(L10:L20,"p")</f>
+        <v>6</v>
+      </c>
+      <c r="M21" s="148">
+        <f>SUM(M10:M20)</f>
+        <v>28</v>
+      </c>
+      <c r="N21" s="149">
+        <f>SUM(N10:N20)</f>
+        <v>16</v>
+      </c>
+      <c r="O21" s="156">
+        <f>AVERAGE(O10:O20)</f>
+        <v>63.636363636363633</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A9:N21"/>
+  <autoFilter ref="A9:O21"/>
   <mergeCells count="7">
-    <mergeCell ref="N6:N9"/>
+    <mergeCell ref="O6:O9"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="A6:E8"/>
-    <mergeCell ref="L6:L9"/>
     <mergeCell ref="M6:M9"/>
+    <mergeCell ref="N6:N9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G10" r:id="rId1"/>

--- a/attendance_oct_nov_jan_nsu_brac_aiub/BRAC_ATTENDANCE/attendance_brac_jan_2016.xlsx
+++ b/attendance_oct_nov_jan_nsu_brac_aiub/BRAC_ATTENDANCE/attendance_brac_jan_2016.xlsx
@@ -14,7 +14,7 @@
     <sheet name="BRAC" sheetId="9" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">BRAC!$A$9:$O$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">BRAC!$A$9:$S$21</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'fine arts'!$A$9:$Q$44</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1928" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1963" uniqueCount="548">
   <si>
     <t>S No</t>
   </si>
@@ -1663,6 +1663,9 @@
   </si>
   <si>
     <t>javascript/jq</t>
+  </si>
+  <si>
+    <t>php</t>
   </si>
 </sst>
 </file>
@@ -3042,6 +3045,57 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3060,15 +3114,9 @@
     <xf numFmtId="1" fontId="1" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3103,51 +3151,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3551,18 +3554,18 @@
   <sheetData>
     <row r="1" spans="1:26" ht="13.5" thickBot="1"/>
     <row r="2" spans="1:26" ht="13.5" thickBot="1">
-      <c r="B2" s="200" t="s">
+      <c r="B2" s="179" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="201"/>
-      <c r="D2" s="202"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="181"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:26">
-      <c r="B3" s="203" t="s">
+      <c r="B3" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="204"/>
+      <c r="C3" s="183"/>
       <c r="D3" s="62">
         <f>SUM(H7:W7)</f>
         <v>48</v>
@@ -3570,10 +3573,10 @@
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:26" ht="13.5" thickBot="1">
-      <c r="B4" s="205" t="s">
+      <c r="B4" s="184" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="206"/>
+      <c r="C4" s="185"/>
       <c r="D4" s="63">
         <f>Z46</f>
         <v>84.571678321678334</v>
@@ -3582,13 +3585,13 @@
     </row>
     <row r="5" spans="1:26" ht="13.5" thickBot="1"/>
     <row r="6" spans="1:26" ht="15">
-      <c r="A6" s="181" t="s">
+      <c r="A6" s="186" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="207"/>
-      <c r="C6" s="207"/>
-      <c r="D6" s="207"/>
-      <c r="E6" s="207"/>
+      <c r="B6" s="187"/>
+      <c r="C6" s="187"/>
+      <c r="D6" s="187"/>
+      <c r="E6" s="187"/>
       <c r="F6" s="78" t="s">
         <v>18</v>
       </c>
@@ -3641,22 +3644,22 @@
       <c r="W6" s="111">
         <v>42322</v>
       </c>
-      <c r="X6" s="175" t="s">
+      <c r="X6" s="192" t="s">
         <v>9</v>
       </c>
-      <c r="Y6" s="193" t="s">
+      <c r="Y6" s="208" t="s">
         <v>10</v>
       </c>
-      <c r="Z6" s="178" t="s">
+      <c r="Z6" s="195" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1">
-      <c r="A7" s="208"/>
-      <c r="B7" s="209"/>
-      <c r="C7" s="209"/>
-      <c r="D7" s="209"/>
-      <c r="E7" s="209"/>
+      <c r="A7" s="188"/>
+      <c r="B7" s="189"/>
+      <c r="C7" s="189"/>
+      <c r="D7" s="189"/>
+      <c r="E7" s="189"/>
       <c r="F7" s="79" t="s">
         <v>16</v>
       </c>
@@ -3711,16 +3714,16 @@
       <c r="W7" s="112">
         <v>3</v>
       </c>
-      <c r="X7" s="176"/>
-      <c r="Y7" s="194"/>
-      <c r="Z7" s="179"/>
+      <c r="X7" s="193"/>
+      <c r="Y7" s="209"/>
+      <c r="Z7" s="196"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="183"/>
-      <c r="B8" s="210"/>
-      <c r="C8" s="210"/>
-      <c r="D8" s="210"/>
-      <c r="E8" s="210"/>
+      <c r="A8" s="190"/>
+      <c r="B8" s="191"/>
+      <c r="C8" s="191"/>
+      <c r="D8" s="191"/>
+      <c r="E8" s="191"/>
       <c r="F8" s="80" t="s">
         <v>19</v>
       </c>
@@ -3775,9 +3778,9 @@
       <c r="W8" s="113" t="s">
         <v>285</v>
       </c>
-      <c r="X8" s="176"/>
-      <c r="Y8" s="194"/>
-      <c r="Z8" s="179"/>
+      <c r="X8" s="193"/>
+      <c r="Y8" s="209"/>
+      <c r="Z8" s="196"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
       <c r="A9" s="35" t="s">
@@ -3849,9 +3852,9 @@
       <c r="W9" s="114" t="s">
         <v>429</v>
       </c>
-      <c r="X9" s="177"/>
-      <c r="Y9" s="195"/>
-      <c r="Z9" s="180"/>
+      <c r="X9" s="194"/>
+      <c r="Y9" s="210"/>
+      <c r="Z9" s="197"/>
     </row>
     <row r="10" spans="1:26" ht="15">
       <c r="A10" s="41">
@@ -6524,15 +6527,15 @@
       </c>
     </row>
     <row r="46" spans="1:26" ht="15" customHeight="1">
-      <c r="A46" s="196"/>
-      <c r="B46" s="197"/>
-      <c r="C46" s="187" t="s">
+      <c r="A46" s="175"/>
+      <c r="B46" s="176"/>
+      <c r="C46" s="202" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="188"/>
-      <c r="E46" s="188"/>
-      <c r="F46" s="188"/>
-      <c r="G46" s="189"/>
+      <c r="D46" s="203"/>
+      <c r="E46" s="203"/>
+      <c r="F46" s="203"/>
+      <c r="G46" s="204"/>
       <c r="H46" s="27">
         <f t="shared" ref="H46:T46" si="3">COUNTIF(H10:H45,"P")</f>
         <v>23</v>
@@ -6597,25 +6600,25 @@
         <f>COUNTIF(W10:W45,"p")</f>
         <v>30</v>
       </c>
-      <c r="X46" s="181" t="s">
+      <c r="X46" s="186" t="s">
         <v>13</v>
       </c>
-      <c r="Y46" s="182"/>
-      <c r="Z46" s="185">
+      <c r="Y46" s="198"/>
+      <c r="Z46" s="200">
         <f>AVERAGE(Z10:Z45)</f>
         <v>84.571678321678334</v>
       </c>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A47" s="198"/>
-      <c r="B47" s="199"/>
-      <c r="C47" s="190" t="s">
+      <c r="A47" s="177"/>
+      <c r="B47" s="178"/>
+      <c r="C47" s="205" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="191"/>
-      <c r="E47" s="191"/>
-      <c r="F47" s="191"/>
-      <c r="G47" s="192"/>
+      <c r="D47" s="206"/>
+      <c r="E47" s="206"/>
+      <c r="F47" s="206"/>
+      <c r="G47" s="207"/>
       <c r="H47" s="31">
         <f t="shared" ref="H47:W47" si="4">COUNTBLANK(H10:H45)</f>
         <v>13</v>
@@ -6680,9 +6683,9 @@
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="X47" s="183"/>
-      <c r="Y47" s="184"/>
-      <c r="Z47" s="186"/>
+      <c r="X47" s="190"/>
+      <c r="Y47" s="199"/>
+      <c r="Z47" s="201"/>
     </row>
     <row r="48" spans="1:26" s="99" customFormat="1" ht="15">
       <c r="A48" s="101">
@@ -6883,11 +6886,6 @@
   </sheetData>
   <autoFilter ref="A9:Q44"/>
   <mergeCells count="12">
-    <mergeCell ref="A46:B47"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A6:E8"/>
     <mergeCell ref="X6:X9"/>
     <mergeCell ref="Z6:Z9"/>
     <mergeCell ref="X46:Y47"/>
@@ -6895,6 +6893,11 @@
     <mergeCell ref="C46:G46"/>
     <mergeCell ref="C47:G47"/>
     <mergeCell ref="Y6:Y9"/>
+    <mergeCell ref="A46:B47"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A6:E8"/>
   </mergeCells>
   <conditionalFormatting sqref="Z10:Z45">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
@@ -6984,18 +6987,18 @@
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B2" s="200" t="s">
+      <c r="B2" s="179" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="201"/>
-      <c r="D2" s="202"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="181"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B3" s="203" t="s">
+      <c r="B3" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="204"/>
+      <c r="C3" s="183"/>
       <c r="D3" s="62">
         <f>SUM(H7:Q7)</f>
         <v>45</v>
@@ -7003,10 +7006,10 @@
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B4" s="205" t="s">
+      <c r="B4" s="184" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="206"/>
+      <c r="C4" s="185"/>
       <c r="D4" s="63">
         <f>T59</f>
         <v>84.476838354389372</v>
@@ -7015,13 +7018,13 @@
     </row>
     <row r="5" spans="1:20" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="6" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A6" s="181" t="s">
+      <c r="A6" s="186" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="207"/>
-      <c r="C6" s="207"/>
-      <c r="D6" s="207"/>
-      <c r="E6" s="207"/>
+      <c r="B6" s="187"/>
+      <c r="C6" s="187"/>
+      <c r="D6" s="187"/>
+      <c r="E6" s="187"/>
       <c r="F6" s="49" t="s">
         <v>18</v>
       </c>
@@ -7056,22 +7059,22 @@
       <c r="Q6" s="51">
         <v>42326</v>
       </c>
-      <c r="R6" s="175" t="s">
+      <c r="R6" s="192" t="s">
         <v>9</v>
       </c>
-      <c r="S6" s="193" t="s">
+      <c r="S6" s="208" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="178" t="s">
+      <c r="T6" s="195" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A7" s="208"/>
-      <c r="B7" s="209"/>
-      <c r="C7" s="209"/>
-      <c r="D7" s="209"/>
-      <c r="E7" s="209"/>
+      <c r="A7" s="188"/>
+      <c r="B7" s="189"/>
+      <c r="C7" s="189"/>
+      <c r="D7" s="189"/>
+      <c r="E7" s="189"/>
       <c r="F7" s="22" t="s">
         <v>16</v>
       </c>
@@ -7108,16 +7111,16 @@
       <c r="Q7" s="6">
         <v>3</v>
       </c>
-      <c r="R7" s="176"/>
-      <c r="S7" s="194"/>
-      <c r="T7" s="179"/>
+      <c r="R7" s="193"/>
+      <c r="S7" s="209"/>
+      <c r="T7" s="196"/>
     </row>
     <row r="8" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="183"/>
-      <c r="B8" s="210"/>
-      <c r="C8" s="210"/>
-      <c r="D8" s="210"/>
-      <c r="E8" s="210"/>
+      <c r="A8" s="190"/>
+      <c r="B8" s="191"/>
+      <c r="C8" s="191"/>
+      <c r="D8" s="191"/>
+      <c r="E8" s="191"/>
       <c r="F8" s="55" t="s">
         <v>19</v>
       </c>
@@ -7154,9 +7157,9 @@
       <c r="Q8" s="58" t="s">
         <v>285</v>
       </c>
-      <c r="R8" s="176"/>
-      <c r="S8" s="194"/>
-      <c r="T8" s="179"/>
+      <c r="R8" s="193"/>
+      <c r="S8" s="209"/>
+      <c r="T8" s="196"/>
     </row>
     <row r="9" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
       <c r="A9" s="120" t="s">
@@ -7210,9 +7213,9 @@
       <c r="Q9" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="R9" s="177"/>
-      <c r="S9" s="195"/>
-      <c r="T9" s="180"/>
+      <c r="R9" s="194"/>
+      <c r="S9" s="210"/>
+      <c r="T9" s="197"/>
     </row>
     <row r="10" spans="1:20" ht="15.75" customHeight="1">
       <c r="A10" s="12">
@@ -10110,13 +10113,13 @@
     <row r="59" spans="1:20" ht="15.75" customHeight="1">
       <c r="A59" s="211"/>
       <c r="B59" s="212"/>
-      <c r="C59" s="187" t="s">
+      <c r="C59" s="202" t="s">
         <v>7</v>
       </c>
-      <c r="D59" s="188"/>
-      <c r="E59" s="188"/>
-      <c r="F59" s="188"/>
-      <c r="G59" s="189"/>
+      <c r="D59" s="203"/>
+      <c r="E59" s="203"/>
+      <c r="F59" s="203"/>
+      <c r="G59" s="204"/>
       <c r="H59" s="27">
         <f t="shared" ref="H59:Q59" si="4">COUNTIF(H10:H58,"P")</f>
         <v>38</v>
@@ -10157,25 +10160,25 @@
         <f t="shared" si="4"/>
         <v>46</v>
       </c>
-      <c r="R59" s="181" t="s">
+      <c r="R59" s="186" t="s">
         <v>13</v>
       </c>
-      <c r="S59" s="182"/>
-      <c r="T59" s="185">
+      <c r="S59" s="198"/>
+      <c r="T59" s="200">
         <f>AVERAGE(T10:T58)</f>
         <v>84.476838354389372</v>
       </c>
     </row>
     <row r="60" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A60" s="198"/>
-      <c r="B60" s="199"/>
-      <c r="C60" s="190" t="s">
+      <c r="A60" s="177"/>
+      <c r="B60" s="178"/>
+      <c r="C60" s="205" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="191"/>
-      <c r="E60" s="191"/>
-      <c r="F60" s="191"/>
-      <c r="G60" s="192"/>
+      <c r="D60" s="206"/>
+      <c r="E60" s="206"/>
+      <c r="F60" s="206"/>
+      <c r="G60" s="207"/>
       <c r="H60" s="31">
         <f>COUNTBLANK(H10:H58)</f>
         <v>11</v>
@@ -10216,17 +10219,12 @@
         <f>COUNTIF(Q11:Q58,#REF!)</f>
         <v>0</v>
       </c>
-      <c r="R60" s="183"/>
-      <c r="S60" s="184"/>
-      <c r="T60" s="186"/>
+      <c r="R60" s="190"/>
+      <c r="S60" s="199"/>
+      <c r="T60" s="201"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A6:E8"/>
-    <mergeCell ref="R6:R9"/>
     <mergeCell ref="T6:T9"/>
     <mergeCell ref="A59:B60"/>
     <mergeCell ref="C59:G59"/>
@@ -10234,6 +10232,11 @@
     <mergeCell ref="T59:T60"/>
     <mergeCell ref="C60:G60"/>
     <mergeCell ref="S6:S9"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A6:E8"/>
+    <mergeCell ref="R6:R9"/>
   </mergeCells>
   <conditionalFormatting sqref="T10:T58">
     <cfRule type="iconSet" priority="1">
@@ -10343,18 +10346,18 @@
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" thickBot="1"/>
     <row r="2" spans="1:25" ht="13.5" thickBot="1">
-      <c r="B2" s="200" t="s">
+      <c r="B2" s="179" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="201"/>
-      <c r="D2" s="202"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="181"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:25">
-      <c r="B3" s="203" t="s">
+      <c r="B3" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="204"/>
+      <c r="C3" s="183"/>
       <c r="D3" s="62">
         <f>SUM(H7:T7)</f>
         <v>18</v>
@@ -10362,10 +10365,10 @@
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:25" ht="13.5" thickBot="1">
-      <c r="B4" s="205" t="s">
+      <c r="B4" s="184" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="206"/>
+      <c r="C4" s="185"/>
       <c r="D4" s="63">
         <f>Y55</f>
         <v>69.298245614035082</v>
@@ -10374,13 +10377,13 @@
     </row>
     <row r="5" spans="1:25" ht="13.5" thickBot="1"/>
     <row r="6" spans="1:25" ht="15">
-      <c r="A6" s="181" t="s">
+      <c r="A6" s="186" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="207"/>
-      <c r="C6" s="207"/>
-      <c r="D6" s="207"/>
-      <c r="E6" s="207"/>
+      <c r="B6" s="187"/>
+      <c r="C6" s="187"/>
+      <c r="D6" s="187"/>
+      <c r="E6" s="187"/>
       <c r="F6" s="49" t="s">
         <v>18</v>
       </c>
@@ -10412,22 +10415,22 @@
       <c r="T6" s="51"/>
       <c r="U6" s="52"/>
       <c r="V6" s="53"/>
-      <c r="W6" s="175" t="s">
+      <c r="W6" s="192" t="s">
         <v>9</v>
       </c>
-      <c r="X6" s="193" t="s">
+      <c r="X6" s="208" t="s">
         <v>10</v>
       </c>
-      <c r="Y6" s="178" t="s">
+      <c r="Y6" s="195" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" s="208"/>
-      <c r="B7" s="209"/>
-      <c r="C7" s="209"/>
-      <c r="D7" s="209"/>
-      <c r="E7" s="209"/>
+      <c r="A7" s="188"/>
+      <c r="B7" s="189"/>
+      <c r="C7" s="189"/>
+      <c r="D7" s="189"/>
+      <c r="E7" s="189"/>
       <c r="F7" s="22" t="s">
         <v>16</v>
       </c>
@@ -10461,16 +10464,16 @@
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
       <c r="V7" s="54"/>
-      <c r="W7" s="176"/>
-      <c r="X7" s="194"/>
-      <c r="Y7" s="179"/>
+      <c r="W7" s="193"/>
+      <c r="X7" s="209"/>
+      <c r="Y7" s="196"/>
     </row>
     <row r="8" spans="1:25" ht="13.5" thickBot="1">
-      <c r="A8" s="183"/>
-      <c r="B8" s="210"/>
-      <c r="C8" s="210"/>
-      <c r="D8" s="210"/>
-      <c r="E8" s="210"/>
+      <c r="A8" s="190"/>
+      <c r="B8" s="191"/>
+      <c r="C8" s="191"/>
+      <c r="D8" s="191"/>
+      <c r="E8" s="191"/>
       <c r="F8" s="55" t="s">
         <v>19</v>
       </c>
@@ -10504,9 +10507,9 @@
       <c r="T8" s="58"/>
       <c r="U8" s="58"/>
       <c r="V8" s="59"/>
-      <c r="W8" s="176"/>
-      <c r="X8" s="194"/>
-      <c r="Y8" s="179"/>
+      <c r="W8" s="193"/>
+      <c r="X8" s="209"/>
+      <c r="Y8" s="196"/>
     </row>
     <row r="9" spans="1:25" ht="13.5" thickBot="1">
       <c r="A9" s="35" t="s">
@@ -10575,9 +10578,9 @@
       <c r="V9" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="W9" s="177"/>
-      <c r="X9" s="195"/>
-      <c r="Y9" s="180"/>
+      <c r="W9" s="194"/>
+      <c r="X9" s="210"/>
+      <c r="Y9" s="197"/>
     </row>
     <row r="10" spans="1:25" ht="15">
       <c r="A10" s="71">
@@ -12997,15 +13000,15 @@
       </c>
     </row>
     <row r="55" spans="1:25">
-      <c r="A55" s="196"/>
-      <c r="B55" s="197"/>
-      <c r="C55" s="187" t="s">
+      <c r="A55" s="175"/>
+      <c r="B55" s="176"/>
+      <c r="C55" s="202" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="188"/>
-      <c r="E55" s="188"/>
-      <c r="F55" s="188"/>
-      <c r="G55" s="188"/>
+      <c r="D55" s="203"/>
+      <c r="E55" s="203"/>
+      <c r="F55" s="203"/>
+      <c r="G55" s="203"/>
       <c r="H55" s="74">
         <f t="shared" ref="H55:T55" si="3">COUNTIF(H10:H54,"P")</f>
         <v>22</v>
@@ -13066,25 +13069,25 @@
         <f>COUNTIF(V10:V54,#REF!)</f>
         <v>0</v>
       </c>
-      <c r="W55" s="181" t="s">
+      <c r="W55" s="186" t="s">
         <v>13</v>
       </c>
-      <c r="X55" s="182"/>
-      <c r="Y55" s="185">
+      <c r="X55" s="198"/>
+      <c r="Y55" s="200">
         <f>AVERAGE(Y10:Y54)</f>
         <v>69.298245614035082</v>
       </c>
     </row>
     <row r="56" spans="1:25" ht="13.5" thickBot="1">
-      <c r="A56" s="198"/>
-      <c r="B56" s="199"/>
-      <c r="C56" s="190" t="s">
+      <c r="A56" s="177"/>
+      <c r="B56" s="178"/>
+      <c r="C56" s="205" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="191"/>
-      <c r="E56" s="191"/>
-      <c r="F56" s="191"/>
-      <c r="G56" s="191"/>
+      <c r="D56" s="206"/>
+      <c r="E56" s="206"/>
+      <c r="F56" s="206"/>
+      <c r="G56" s="206"/>
       <c r="H56" s="75">
         <f>COUNTBLANK(H10:H54)</f>
         <v>23</v>
@@ -13145,17 +13148,12 @@
         <f>COUNTIF(V11:V54,#REF!)</f>
         <v>0</v>
       </c>
-      <c r="W56" s="183"/>
-      <c r="X56" s="184"/>
-      <c r="Y56" s="186"/>
+      <c r="W56" s="190"/>
+      <c r="X56" s="199"/>
+      <c r="Y56" s="201"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A6:E8"/>
-    <mergeCell ref="W6:W9"/>
     <mergeCell ref="Y6:Y9"/>
     <mergeCell ref="A55:B56"/>
     <mergeCell ref="C55:G55"/>
@@ -13163,6 +13161,11 @@
     <mergeCell ref="Y55:Y56"/>
     <mergeCell ref="C56:G56"/>
     <mergeCell ref="X6:X9"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A6:E8"/>
+    <mergeCell ref="W6:W9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G10" r:id="rId1"/>
@@ -13252,18 +13255,18 @@
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" thickBot="1"/>
     <row r="2" spans="1:25" ht="13.5" thickBot="1">
-      <c r="B2" s="200" t="s">
+      <c r="B2" s="179" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="201"/>
-      <c r="D2" s="202"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="181"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:25">
-      <c r="B3" s="203" t="s">
+      <c r="B3" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="204"/>
+      <c r="C3" s="183"/>
       <c r="D3" s="62">
         <f>SUM(H7:T7)</f>
         <v>6</v>
@@ -13271,10 +13274,10 @@
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:25" ht="13.5" thickBot="1">
-      <c r="B4" s="205" t="s">
+      <c r="B4" s="184" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="206"/>
+      <c r="C4" s="185"/>
       <c r="D4" s="63" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -13283,13 +13286,13 @@
     </row>
     <row r="5" spans="1:25" ht="13.5" thickBot="1"/>
     <row r="6" spans="1:25" ht="15">
-      <c r="A6" s="181" t="s">
+      <c r="A6" s="186" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="207"/>
-      <c r="C6" s="207"/>
-      <c r="D6" s="207"/>
-      <c r="E6" s="207"/>
+      <c r="B6" s="187"/>
+      <c r="C6" s="187"/>
+      <c r="D6" s="187"/>
+      <c r="E6" s="187"/>
       <c r="F6" s="49" t="s">
         <v>18</v>
       </c>
@@ -13313,22 +13316,22 @@
       <c r="T6" s="51"/>
       <c r="U6" s="52"/>
       <c r="V6" s="53"/>
-      <c r="W6" s="175" t="s">
+      <c r="W6" s="192" t="s">
         <v>9</v>
       </c>
-      <c r="X6" s="193" t="s">
+      <c r="X6" s="208" t="s">
         <v>10</v>
       </c>
-      <c r="Y6" s="178" t="s">
+      <c r="Y6" s="195" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" s="208"/>
-      <c r="B7" s="209"/>
-      <c r="C7" s="209"/>
-      <c r="D7" s="209"/>
-      <c r="E7" s="209"/>
+      <c r="A7" s="188"/>
+      <c r="B7" s="189"/>
+      <c r="C7" s="189"/>
+      <c r="D7" s="189"/>
+      <c r="E7" s="189"/>
       <c r="F7" s="22" t="s">
         <v>16</v>
       </c>
@@ -13354,16 +13357,16 @@
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
       <c r="V7" s="54"/>
-      <c r="W7" s="176"/>
-      <c r="X7" s="194"/>
-      <c r="Y7" s="179"/>
+      <c r="W7" s="193"/>
+      <c r="X7" s="209"/>
+      <c r="Y7" s="196"/>
     </row>
     <row r="8" spans="1:25" ht="13.5" thickBot="1">
-      <c r="A8" s="183"/>
-      <c r="B8" s="210"/>
-      <c r="C8" s="210"/>
-      <c r="D8" s="210"/>
-      <c r="E8" s="210"/>
+      <c r="A8" s="190"/>
+      <c r="B8" s="191"/>
+      <c r="C8" s="191"/>
+      <c r="D8" s="191"/>
+      <c r="E8" s="191"/>
       <c r="F8" s="55" t="s">
         <v>19</v>
       </c>
@@ -13389,9 +13392,9 @@
       <c r="T8" s="58"/>
       <c r="U8" s="58"/>
       <c r="V8" s="59"/>
-      <c r="W8" s="176"/>
-      <c r="X8" s="194"/>
-      <c r="Y8" s="179"/>
+      <c r="W8" s="193"/>
+      <c r="X8" s="209"/>
+      <c r="Y8" s="196"/>
     </row>
     <row r="9" spans="1:25" ht="13.5" thickBot="1">
       <c r="A9" s="35" t="s">
@@ -13460,9 +13463,9 @@
       <c r="V9" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="W9" s="177"/>
-      <c r="X9" s="195"/>
-      <c r="Y9" s="180"/>
+      <c r="W9" s="194"/>
+      <c r="X9" s="210"/>
+      <c r="Y9" s="197"/>
     </row>
     <row r="10" spans="1:25" ht="15">
       <c r="A10" s="128">
@@ -15352,12 +15355,12 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="topRight" activeCell="H3" sqref="H3"/>
+      <selection pane="topRight" activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -15370,15 +15373,15 @@
     <col min="6" max="6" width="20" style="77" customWidth="1"/>
     <col min="7" max="7" width="34.28515625" style="77" customWidth="1"/>
     <col min="8" max="8" width="59.140625" style="77" customWidth="1"/>
-    <col min="9" max="12" width="15.140625" style="77" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" style="77" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="77" customWidth="1"/>
-    <col min="15" max="15" width="9.42578125" style="133" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="77"/>
+    <col min="9" max="16" width="15.140625" style="77" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" style="77" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="77" customWidth="1"/>
+    <col min="19" max="19" width="9.42578125" style="133" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="77"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="13.5" thickBot="1"/>
-    <row r="2" spans="1:15" ht="13.5" thickBot="1">
+    <row r="1" spans="1:19" ht="13.5" thickBot="1"/>
+    <row r="2" spans="1:19" ht="13.5" thickBot="1">
       <c r="B2" s="214" t="s">
         <v>17</v>
       </c>
@@ -15386,29 +15389,29 @@
       <c r="D2" s="216"/>
       <c r="E2" s="134"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:19">
       <c r="B3" s="217" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="218"/>
       <c r="D3" s="135">
-        <f>SUM(I8:L8)</f>
-        <v>12</v>
+        <f>SUM(I8:P8)</f>
+        <v>24</v>
       </c>
       <c r="E3" s="136"/>
     </row>
-    <row r="4" spans="1:15" ht="13.5" thickBot="1">
+    <row r="4" spans="1:19" ht="13.5" thickBot="1">
       <c r="B4" s="219" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="220"/>
       <c r="D4" s="137">
-        <f>O21</f>
-        <v>63.636363636363633</v>
+        <f>S21</f>
+        <v>62.5</v>
       </c>
       <c r="E4" s="138"/>
     </row>
-    <row r="6" spans="1:15" ht="15">
+    <row r="6" spans="1:19" ht="15">
       <c r="A6" s="221" t="s">
         <v>520</v>
       </c>
@@ -15433,17 +15436,29 @@
       <c r="L6" s="139">
         <v>42418</v>
       </c>
-      <c r="M6" s="222" t="s">
+      <c r="M6" s="139">
+        <v>42432</v>
+      </c>
+      <c r="N6" s="139">
+        <v>42434</v>
+      </c>
+      <c r="O6" s="139">
+        <v>42439</v>
+      </c>
+      <c r="P6" s="139">
+        <v>42441</v>
+      </c>
+      <c r="Q6" s="222" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="222" t="s">
+      <c r="R6" s="222" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="213" t="s">
+      <c r="S6" s="213" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:19">
       <c r="A7" s="221"/>
       <c r="B7" s="221"/>
       <c r="C7" s="221"/>
@@ -15463,16 +15478,28 @@
         <v>522</v>
       </c>
       <c r="K7" s="142" t="s">
-        <v>522</v>
+        <v>546</v>
       </c>
       <c r="L7" s="142" t="s">
         <v>546</v>
       </c>
-      <c r="M7" s="222"/>
-      <c r="N7" s="222"/>
-      <c r="O7" s="213"/>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="M7" s="142" t="s">
+        <v>547</v>
+      </c>
+      <c r="N7" s="142" t="s">
+        <v>547</v>
+      </c>
+      <c r="O7" s="142" t="s">
+        <v>547</v>
+      </c>
+      <c r="P7" s="142" t="s">
+        <v>547</v>
+      </c>
+      <c r="Q7" s="222"/>
+      <c r="R7" s="222"/>
+      <c r="S7" s="213"/>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="221"/>
       <c r="B8" s="221"/>
       <c r="C8" s="221"/>
@@ -15497,11 +15524,23 @@
       <c r="L8" s="157">
         <v>3</v>
       </c>
-      <c r="M8" s="222"/>
-      <c r="N8" s="222"/>
-      <c r="O8" s="213"/>
-    </row>
-    <row r="9" spans="1:15" ht="13.5" thickBot="1">
+      <c r="M8" s="157">
+        <v>3</v>
+      </c>
+      <c r="N8" s="157">
+        <v>3</v>
+      </c>
+      <c r="O8" s="157">
+        <v>3</v>
+      </c>
+      <c r="P8" s="157">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="222"/>
+      <c r="R8" s="222"/>
+      <c r="S8" s="213"/>
+    </row>
+    <row r="9" spans="1:19" ht="13.5" thickBot="1">
       <c r="A9" s="141" t="s">
         <v>0</v>
       </c>
@@ -15538,11 +15577,23 @@
       <c r="L9" s="141" t="s">
         <v>519</v>
       </c>
-      <c r="M9" s="222"/>
-      <c r="N9" s="222"/>
-      <c r="O9" s="213"/>
-    </row>
-    <row r="10" spans="1:15" ht="15.75" thickBot="1">
+      <c r="M9" s="141" t="s">
+        <v>519</v>
+      </c>
+      <c r="N9" s="141" t="s">
+        <v>519</v>
+      </c>
+      <c r="O9" s="141" t="s">
+        <v>519</v>
+      </c>
+      <c r="P9" s="141" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q9" s="222"/>
+      <c r="R9" s="222"/>
+      <c r="S9" s="213"/>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" thickBot="1">
       <c r="A10" s="144">
         <v>1</v>
       </c>
@@ -15573,20 +15624,30 @@
       <c r="L10" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="M10" s="143">
-        <f>COUNTIF(I10:L10,"P")</f>
-        <v>4</v>
-      </c>
-      <c r="N10" s="146">
-        <f>COUNTBLANK(I10:L10)</f>
-        <v>0</v>
-      </c>
-      <c r="O10" s="155">
-        <f>M10*100/SUM(M10:N10)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="15.75" thickBot="1">
+      <c r="M10" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="N10" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="O10" s="143"/>
+      <c r="P10" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q10" s="143">
+        <f>COUNTIF(I10:P10,"P")</f>
+        <v>7</v>
+      </c>
+      <c r="R10" s="146">
+        <f>COUNTBLANK(I10:P10)</f>
+        <v>1</v>
+      </c>
+      <c r="S10" s="155">
+        <f>Q10*100/SUM(Q10:R10)</f>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" thickBot="1">
       <c r="A11" s="144">
         <v>2</v>
       </c>
@@ -15617,20 +15678,32 @@
       <c r="L11" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="M11" s="143">
-        <f t="shared" ref="M11:M20" si="0">COUNTIF(I11:L11,"P")</f>
-        <v>4</v>
-      </c>
-      <c r="N11" s="146">
-        <f t="shared" ref="N11:N20" si="1">COUNTBLANK(I11:L11)</f>
+      <c r="M11" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="N11" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="O11" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="P11" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q11" s="143">
+        <f t="shared" ref="Q11:Q20" si="0">COUNTIF(I11:P11,"P")</f>
+        <v>8</v>
+      </c>
+      <c r="R11" s="146">
+        <f t="shared" ref="R11:R20" si="1">COUNTBLANK(I11:P11)</f>
         <v>0</v>
       </c>
-      <c r="O11" s="155">
-        <f>M11*100/SUM(M11:N11)</f>
+      <c r="S11" s="155">
+        <f>Q11*100/SUM(Q11:R11)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" thickBot="1">
+    <row r="12" spans="1:19" ht="15.75" thickBot="1">
       <c r="A12" s="144">
         <v>3</v>
       </c>
@@ -15651,20 +15724,24 @@
       <c r="J12" s="143"/>
       <c r="K12" s="143"/>
       <c r="L12" s="143"/>
-      <c r="M12" s="143">
+      <c r="M12" s="143"/>
+      <c r="N12" s="143"/>
+      <c r="O12" s="143"/>
+      <c r="P12" s="143"/>
+      <c r="Q12" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N12" s="146">
+      <c r="R12" s="146">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="O12" s="155">
-        <f t="shared" ref="O12:O20" si="2">M12*100/SUM(M12:N12)</f>
+        <v>8</v>
+      </c>
+      <c r="S12" s="155">
+        <f t="shared" ref="S12:S20" si="2">Q12*100/SUM(Q12:R12)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" thickBot="1">
+    <row r="13" spans="1:19" ht="15.75" thickBot="1">
       <c r="A13" s="144">
         <v>4</v>
       </c>
@@ -15693,20 +15770,32 @@
       <c r="L13" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="M13" s="143">
+      <c r="M13" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="N13" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="O13" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="P13" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q13" s="143">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="N13" s="146">
+        <v>7</v>
+      </c>
+      <c r="R13" s="146">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O13" s="155">
+      <c r="S13" s="155">
         <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="15.75" thickBot="1">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="15.75" thickBot="1">
       <c r="A14" s="144">
         <v>5</v>
       </c>
@@ -15733,20 +15822,32 @@
       </c>
       <c r="K14" s="143"/>
       <c r="L14" s="143"/>
-      <c r="M14" s="143">
+      <c r="M14" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="N14" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="O14" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="P14" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q14" s="143">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="N14" s="146">
+        <v>6</v>
+      </c>
+      <c r="R14" s="146">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="O14" s="155">
+      <c r="S14" s="155">
         <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="15.75" thickBot="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="15.75" thickBot="1">
       <c r="A15" s="144">
         <v>6</v>
       </c>
@@ -15777,20 +15878,30 @@
       <c r="L15" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="M15" s="143">
+      <c r="M15" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="N15" s="143"/>
+      <c r="O15" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="P15" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q15" s="143">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="N15" s="146">
+        <v>7</v>
+      </c>
+      <c r="R15" s="146">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O15" s="155">
+        <v>1</v>
+      </c>
+      <c r="S15" s="155">
         <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" s="167" customFormat="1" ht="15.75" thickBot="1">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" s="167" customFormat="1" ht="15.75" thickBot="1">
       <c r="A16" s="162">
         <v>7</v>
       </c>
@@ -15817,20 +15928,26 @@
       <c r="L16" s="165" t="s">
         <v>104</v>
       </c>
-      <c r="M16" s="143">
+      <c r="M16" s="165"/>
+      <c r="N16" s="165" t="s">
+        <v>104</v>
+      </c>
+      <c r="O16" s="165"/>
+      <c r="P16" s="165"/>
+      <c r="Q16" s="143">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="N16" s="146">
+        <v>3</v>
+      </c>
+      <c r="R16" s="146">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="O16" s="166">
+        <v>5</v>
+      </c>
+      <c r="S16" s="166">
         <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="15.75" thickBot="1">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="15.75" thickBot="1">
       <c r="A17" s="144">
         <v>8</v>
       </c>
@@ -15857,20 +15974,32 @@
       </c>
       <c r="K17" s="143"/>
       <c r="L17" s="143"/>
-      <c r="M17" s="143">
+      <c r="M17" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="N17" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="O17" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="P17" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q17" s="143">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="N17" s="146">
+        <v>6</v>
+      </c>
+      <c r="R17" s="146">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="O17" s="155">
+      <c r="S17" s="155">
         <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="15.75" thickBot="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="15.75" thickBot="1">
       <c r="A18" s="144">
         <v>9</v>
       </c>
@@ -15897,20 +16026,26 @@
       </c>
       <c r="K18" s="143"/>
       <c r="L18" s="143"/>
-      <c r="M18" s="143">
+      <c r="M18" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="N18" s="143"/>
+      <c r="O18" s="143"/>
+      <c r="P18" s="143"/>
+      <c r="Q18" s="143">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="N18" s="146">
+        <v>3</v>
+      </c>
+      <c r="R18" s="146">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="O18" s="155">
+        <v>5</v>
+      </c>
+      <c r="S18" s="155">
         <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="15.75" thickBot="1">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="15.75" thickBot="1">
       <c r="A19" s="144">
         <v>10</v>
       </c>
@@ -15937,20 +16072,28 @@
       </c>
       <c r="K19" s="143"/>
       <c r="L19" s="143"/>
-      <c r="M19" s="143">
+      <c r="M19" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="N19" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="O19" s="143"/>
+      <c r="P19" s="143"/>
+      <c r="Q19" s="143">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="N19" s="146">
+        <v>4</v>
+      </c>
+      <c r="R19" s="146">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="O19" s="155">
-        <f t="shared" ref="O19" si="3">M19*100/SUM(M19:N19)</f>
+        <v>4</v>
+      </c>
+      <c r="S19" s="155">
+        <f t="shared" ref="S19" si="3">Q19*100/SUM(Q19:R19)</f>
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75" thickBot="1">
+    <row r="20" spans="1:19" ht="15.75" thickBot="1">
       <c r="A20" s="144">
         <v>10</v>
       </c>
@@ -15979,20 +16122,26 @@
       <c r="L20" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="M20" s="143">
+      <c r="M20" s="143"/>
+      <c r="N20" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="O20" s="143"/>
+      <c r="P20" s="143"/>
+      <c r="Q20" s="143">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="N20" s="146">
+        <v>4</v>
+      </c>
+      <c r="R20" s="146">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O20" s="155">
+        <v>4</v>
+      </c>
+      <c r="S20" s="155">
         <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="15">
       <c r="A21" s="144">
         <v>38</v>
       </c>
@@ -16004,44 +16153,60 @@
       <c r="G21" s="145"/>
       <c r="H21" s="145"/>
       <c r="I21" s="148">
-        <f>COUNTIF(I10:I20,"p")</f>
+        <f t="shared" ref="I21:P21" si="4">COUNTIF(I10:I20,"p")</f>
         <v>9</v>
       </c>
       <c r="J21" s="148">
-        <f>COUNTIF(J10:J20,"p")</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="K21" s="148">
-        <f>COUNTIF(K10:K20,"p")</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="L21" s="148">
-        <f>COUNTIF(L10:L20,"p")</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="M21" s="148">
-        <f>SUM(M10:M20)</f>
-        <v>28</v>
-      </c>
-      <c r="N21" s="149">
-        <f>SUM(N10:N20)</f>
-        <v>16</v>
-      </c>
-      <c r="O21" s="156">
-        <f>AVERAGE(O10:O20)</f>
-        <v>63.636363636363633</v>
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="N21" s="148">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="O21" s="148">
+        <f t="shared" ref="O21" si="5">COUNTIF(O10:O20,"p")</f>
+        <v>5</v>
+      </c>
+      <c r="P21" s="148">
+        <f>COUNTIF(P10:P20,"p")</f>
+        <v>6</v>
+      </c>
+      <c r="Q21" s="148">
+        <f>SUM(Q10:Q20)</f>
+        <v>55</v>
+      </c>
+      <c r="R21" s="149">
+        <f>SUM(R10:R20)</f>
+        <v>33</v>
+      </c>
+      <c r="S21" s="156">
+        <f>AVERAGE(S10:S20)</f>
+        <v>62.5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A9:O21"/>
+  <autoFilter ref="A9:S21"/>
   <mergeCells count="7">
-    <mergeCell ref="O6:O9"/>
+    <mergeCell ref="S6:S9"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="A6:E8"/>
-    <mergeCell ref="M6:M9"/>
-    <mergeCell ref="N6:N9"/>
+    <mergeCell ref="Q6:Q9"/>
+    <mergeCell ref="R6:R9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G10" r:id="rId1"/>

--- a/attendance_oct_nov_jan_nsu_brac_aiub/BRAC_ATTENDANCE/attendance_brac_jan_2016.xlsx
+++ b/attendance_oct_nov_jan_nsu_brac_aiub/BRAC_ATTENDANCE/attendance_brac_jan_2016.xlsx
@@ -14,7 +14,7 @@
     <sheet name="BRAC" sheetId="9" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">BRAC!$A$9:$S$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">BRAC!$A$9:$T$21</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'fine arts'!$A$9:$Q$44</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1963" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1971" uniqueCount="548">
   <si>
     <t>S No</t>
   </si>
@@ -15355,12 +15355,12 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="topRight" activeCell="P26" sqref="P26"/>
+      <selection pane="topRight" activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -15373,15 +15373,15 @@
     <col min="6" max="6" width="20" style="77" customWidth="1"/>
     <col min="7" max="7" width="34.28515625" style="77" customWidth="1"/>
     <col min="8" max="8" width="59.140625" style="77" customWidth="1"/>
-    <col min="9" max="16" width="15.140625" style="77" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" style="77" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="77" customWidth="1"/>
-    <col min="19" max="19" width="9.42578125" style="133" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="77"/>
+    <col min="9" max="17" width="15.140625" style="77" customWidth="1"/>
+    <col min="18" max="18" width="15.7109375" style="77" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="77" customWidth="1"/>
+    <col min="20" max="20" width="9.42578125" style="133" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="77"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="13.5" thickBot="1"/>
-    <row r="2" spans="1:19" ht="13.5" thickBot="1">
+    <row r="1" spans="1:20" ht="13.5" thickBot="1"/>
+    <row r="2" spans="1:20" ht="13.5" thickBot="1">
       <c r="B2" s="214" t="s">
         <v>17</v>
       </c>
@@ -15389,29 +15389,29 @@
       <c r="D2" s="216"/>
       <c r="E2" s="134"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:20">
       <c r="B3" s="217" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="218"/>
       <c r="D3" s="135">
-        <f>SUM(I8:P8)</f>
-        <v>24</v>
+        <f>SUM(I8:Q8)</f>
+        <v>27</v>
       </c>
       <c r="E3" s="136"/>
     </row>
-    <row r="4" spans="1:19" ht="13.5" thickBot="1">
+    <row r="4" spans="1:20" ht="13.5" thickBot="1">
       <c r="B4" s="219" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="220"/>
       <c r="D4" s="137">
-        <f>S21</f>
-        <v>62.5</v>
+        <f>T21</f>
+        <v>61.616161616161612</v>
       </c>
       <c r="E4" s="138"/>
     </row>
-    <row r="6" spans="1:19" ht="15">
+    <row r="6" spans="1:20" ht="15">
       <c r="A6" s="221" t="s">
         <v>520</v>
       </c>
@@ -15448,17 +15448,20 @@
       <c r="P6" s="139">
         <v>42441</v>
       </c>
-      <c r="Q6" s="222" t="s">
+      <c r="Q6" s="139">
+        <v>42448</v>
+      </c>
+      <c r="R6" s="222" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="222" t="s">
+      <c r="S6" s="222" t="s">
         <v>10</v>
       </c>
-      <c r="S6" s="213" t="s">
+      <c r="T6" s="213" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:20">
       <c r="A7" s="221"/>
       <c r="B7" s="221"/>
       <c r="C7" s="221"/>
@@ -15495,11 +15498,14 @@
       <c r="P7" s="142" t="s">
         <v>547</v>
       </c>
-      <c r="Q7" s="222"/>
+      <c r="Q7" s="142" t="s">
+        <v>547</v>
+      </c>
       <c r="R7" s="222"/>
-      <c r="S7" s="213"/>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="S7" s="222"/>
+      <c r="T7" s="213"/>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="221"/>
       <c r="B8" s="221"/>
       <c r="C8" s="221"/>
@@ -15536,11 +15542,14 @@
       <c r="P8" s="157">
         <v>3</v>
       </c>
-      <c r="Q8" s="222"/>
+      <c r="Q8" s="157">
+        <v>3</v>
+      </c>
       <c r="R8" s="222"/>
-      <c r="S8" s="213"/>
-    </row>
-    <row r="9" spans="1:19" ht="13.5" thickBot="1">
+      <c r="S8" s="222"/>
+      <c r="T8" s="213"/>
+    </row>
+    <row r="9" spans="1:20" ht="13.5" thickBot="1">
       <c r="A9" s="141" t="s">
         <v>0</v>
       </c>
@@ -15589,11 +15598,14 @@
       <c r="P9" s="141" t="s">
         <v>519</v>
       </c>
-      <c r="Q9" s="222"/>
+      <c r="Q9" s="141" t="s">
+        <v>519</v>
+      </c>
       <c r="R9" s="222"/>
-      <c r="S9" s="213"/>
-    </row>
-    <row r="10" spans="1:19" ht="15.75" thickBot="1">
+      <c r="S9" s="222"/>
+      <c r="T9" s="213"/>
+    </row>
+    <row r="10" spans="1:20" ht="15.75" thickBot="1">
       <c r="A10" s="144">
         <v>1</v>
       </c>
@@ -15634,20 +15646,21 @@
       <c r="P10" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="Q10" s="143">
-        <f>COUNTIF(I10:P10,"P")</f>
+      <c r="Q10" s="143"/>
+      <c r="R10" s="143">
+        <f>COUNTIF(I10:Q10,"P")</f>
         <v>7</v>
       </c>
-      <c r="R10" s="146">
-        <f>COUNTBLANK(I10:P10)</f>
-        <v>1</v>
-      </c>
-      <c r="S10" s="155">
-        <f>Q10*100/SUM(Q10:R10)</f>
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="15.75" thickBot="1">
+      <c r="S10" s="146">
+        <f>COUNTBLANK(I10:Q10)</f>
+        <v>2</v>
+      </c>
+      <c r="T10" s="155">
+        <f>R10*100/SUM(R10:S10)</f>
+        <v>77.777777777777771</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="15.75" thickBot="1">
       <c r="A11" s="144">
         <v>2</v>
       </c>
@@ -15690,20 +15703,23 @@
       <c r="P11" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="Q11" s="143">
-        <f t="shared" ref="Q11:Q20" si="0">COUNTIF(I11:P11,"P")</f>
-        <v>8</v>
-      </c>
-      <c r="R11" s="146">
-        <f t="shared" ref="R11:R20" si="1">COUNTBLANK(I11:P11)</f>
+      <c r="Q11" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="R11" s="143">
+        <f t="shared" ref="R11:R20" si="0">COUNTIF(I11:Q11,"P")</f>
+        <v>9</v>
+      </c>
+      <c r="S11" s="146">
+        <f t="shared" ref="S11:S20" si="1">COUNTBLANK(I11:Q11)</f>
         <v>0</v>
       </c>
-      <c r="S11" s="155">
-        <f>Q11*100/SUM(Q11:R11)</f>
+      <c r="T11" s="155">
+        <f>R11*100/SUM(R11:S11)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="15.75" thickBot="1">
+    <row r="12" spans="1:20" ht="15.75" thickBot="1">
       <c r="A12" s="144">
         <v>3</v>
       </c>
@@ -15728,20 +15744,21 @@
       <c r="N12" s="143"/>
       <c r="O12" s="143"/>
       <c r="P12" s="143"/>
-      <c r="Q12" s="143">
+      <c r="Q12" s="143"/>
+      <c r="R12" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R12" s="146">
+      <c r="S12" s="146">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="S12" s="155">
-        <f t="shared" ref="S12:S20" si="2">Q12*100/SUM(Q12:R12)</f>
+        <v>9</v>
+      </c>
+      <c r="T12" s="155">
+        <f t="shared" ref="T12:T20" si="2">R12*100/SUM(R12:S12)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="15.75" thickBot="1">
+    <row r="13" spans="1:20" ht="15.75" thickBot="1">
       <c r="A13" s="144">
         <v>4</v>
       </c>
@@ -15782,20 +15799,23 @@
       <c r="P13" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="Q13" s="143">
+      <c r="Q13" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="R13" s="143">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="R13" s="146">
+        <v>8</v>
+      </c>
+      <c r="S13" s="146">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="S13" s="155">
+      <c r="T13" s="155">
         <f t="shared" si="2"/>
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="15.75" thickBot="1">
+        <v>88.888888888888886</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="15.75" thickBot="1">
       <c r="A14" s="144">
         <v>5</v>
       </c>
@@ -15834,20 +15854,23 @@
       <c r="P14" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="Q14" s="143">
+      <c r="Q14" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="R14" s="143">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="R14" s="146">
+        <v>7</v>
+      </c>
+      <c r="S14" s="146">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="S14" s="155">
+      <c r="T14" s="155">
         <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="15.75" thickBot="1">
+        <v>77.777777777777771</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="15.75" thickBot="1">
       <c r="A15" s="144">
         <v>6</v>
       </c>
@@ -15888,20 +15911,23 @@
       <c r="P15" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="Q15" s="143">
+      <c r="Q15" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="R15" s="143">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="R15" s="146">
+        <v>8</v>
+      </c>
+      <c r="S15" s="146">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="S15" s="155">
+      <c r="T15" s="155">
         <f t="shared" si="2"/>
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" s="167" customFormat="1" ht="15.75" thickBot="1">
+        <v>88.888888888888886</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" s="167" customFormat="1" ht="15.75" thickBot="1">
       <c r="A16" s="162">
         <v>7</v>
       </c>
@@ -15934,20 +15960,23 @@
       </c>
       <c r="O16" s="165"/>
       <c r="P16" s="165"/>
-      <c r="Q16" s="143">
+      <c r="Q16" s="165" t="s">
+        <v>104</v>
+      </c>
+      <c r="R16" s="143">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="R16" s="146">
+        <v>4</v>
+      </c>
+      <c r="S16" s="146">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="S16" s="166">
+      <c r="T16" s="166">
         <f t="shared" si="2"/>
-        <v>37.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="15.75" thickBot="1">
+        <v>44.444444444444443</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="15.75" thickBot="1">
       <c r="A17" s="144">
         <v>8</v>
       </c>
@@ -15986,20 +16015,21 @@
       <c r="P17" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="Q17" s="143">
+      <c r="Q17" s="143"/>
+      <c r="R17" s="143">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="R17" s="146">
+      <c r="S17" s="146">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="S17" s="155">
+        <v>3</v>
+      </c>
+      <c r="T17" s="155">
         <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="15.75" thickBot="1">
+        <v>66.666666666666671</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="15.75" thickBot="1">
       <c r="A18" s="144">
         <v>9</v>
       </c>
@@ -16032,20 +16062,21 @@
       <c r="N18" s="143"/>
       <c r="O18" s="143"/>
       <c r="P18" s="143"/>
-      <c r="Q18" s="143">
+      <c r="Q18" s="143"/>
+      <c r="R18" s="143">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="R18" s="146">
+      <c r="S18" s="146">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="S18" s="155">
+        <v>6</v>
+      </c>
+      <c r="T18" s="155">
         <f t="shared" si="2"/>
-        <v>37.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="15.75" thickBot="1">
+        <v>33.333333333333336</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="15.75" thickBot="1">
       <c r="A19" s="144">
         <v>10</v>
       </c>
@@ -16080,20 +16111,23 @@
       </c>
       <c r="O19" s="143"/>
       <c r="P19" s="143"/>
-      <c r="Q19" s="143">
+      <c r="Q19" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="R19" s="143">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="R19" s="146">
+        <v>5</v>
+      </c>
+      <c r="S19" s="146">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="S19" s="155">
-        <f t="shared" ref="S19" si="3">Q19*100/SUM(Q19:R19)</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="15.75" thickBot="1">
+      <c r="T19" s="155">
+        <f t="shared" ref="T19" si="3">R19*100/SUM(R19:S19)</f>
+        <v>55.555555555555557</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="15.75" thickBot="1">
       <c r="A20" s="144">
         <v>10</v>
       </c>
@@ -16128,20 +16162,21 @@
       </c>
       <c r="O20" s="143"/>
       <c r="P20" s="143"/>
-      <c r="Q20" s="143">
+      <c r="Q20" s="143"/>
+      <c r="R20" s="143">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="R20" s="146">
+      <c r="S20" s="146">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="S20" s="155">
+        <v>5</v>
+      </c>
+      <c r="T20" s="155">
         <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="15">
+        <v>44.444444444444443</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="15">
       <c r="A21" s="144">
         <v>38</v>
       </c>
@@ -16153,7 +16188,7 @@
       <c r="G21" s="145"/>
       <c r="H21" s="145"/>
       <c r="I21" s="148">
-        <f t="shared" ref="I21:P21" si="4">COUNTIF(I10:I20,"p")</f>
+        <f t="shared" ref="I21:N21" si="4">COUNTIF(I10:I20,"p")</f>
         <v>9</v>
       </c>
       <c r="J21" s="148">
@@ -16185,28 +16220,32 @@
         <v>6</v>
       </c>
       <c r="Q21" s="148">
-        <f>SUM(Q10:Q20)</f>
-        <v>55</v>
-      </c>
-      <c r="R21" s="149">
+        <f>COUNTIF(Q10:Q20,"p")</f>
+        <v>6</v>
+      </c>
+      <c r="R21" s="148">
         <f>SUM(R10:R20)</f>
-        <v>33</v>
-      </c>
-      <c r="S21" s="156">
-        <f>AVERAGE(S10:S20)</f>
-        <v>62.5</v>
+        <v>61</v>
+      </c>
+      <c r="S21" s="149">
+        <f>SUM(S10:S20)</f>
+        <v>38</v>
+      </c>
+      <c r="T21" s="156">
+        <f>AVERAGE(T10:T20)</f>
+        <v>61.616161616161612</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A9:S21"/>
+  <autoFilter ref="A9:T21"/>
   <mergeCells count="7">
-    <mergeCell ref="S6:S9"/>
+    <mergeCell ref="T6:T9"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="A6:E8"/>
-    <mergeCell ref="Q6:Q9"/>
     <mergeCell ref="R6:R9"/>
+    <mergeCell ref="S6:S9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G10" r:id="rId1"/>
